--- a/SchedulingData/dynamic16/pso/scheduling1_5.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_5.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.8</v>
+        <v>73.08</v>
       </c>
       <c r="E2" t="n">
-        <v>25.62</v>
+        <v>26.352</v>
       </c>
     </row>
     <row r="3">
@@ -485,112 +485,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.23999999999999</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>27.216</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>56.9</v>
+        <v>147.92</v>
       </c>
       <c r="E4" t="n">
-        <v>25.5</v>
+        <v>22.488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>134.04</v>
+        <v>68.2</v>
       </c>
       <c r="E5" t="n">
-        <v>22.836</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56.9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>98.12</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
-        <v>22.508</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>85.48</v>
+        <v>78.8</v>
       </c>
       <c r="E7" t="n">
-        <v>25.632</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>85.48</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>138.56</v>
+        <v>125.32</v>
       </c>
       <c r="E8" t="n">
-        <v>22.464</v>
+        <v>23.268</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.8</v>
+        <v>73.08</v>
       </c>
       <c r="D9" t="n">
-        <v>133.82</v>
+        <v>127.24</v>
       </c>
       <c r="E9" t="n">
-        <v>21.408</v>
+        <v>22.556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>78.8</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9</v>
+        <v>119.14</v>
       </c>
       <c r="E10" t="n">
-        <v>26.88</v>
+        <v>23.376</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>68.2</v>
+        <v>60.48</v>
       </c>
       <c r="E11" t="n">
-        <v>25.84</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="12">
@@ -656,188 +656,188 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68.2</v>
+        <v>119.14</v>
       </c>
       <c r="D12" t="n">
-        <v>125.3</v>
+        <v>172.58</v>
       </c>
       <c r="E12" t="n">
-        <v>22.24</v>
+        <v>18.672</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>98.12</v>
+        <v>147.92</v>
       </c>
       <c r="D13" t="n">
-        <v>149.18</v>
+        <v>209.72</v>
       </c>
       <c r="E13" t="n">
-        <v>18.532</v>
+        <v>19.408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>149.18</v>
+        <v>209.72</v>
       </c>
       <c r="D14" t="n">
-        <v>188.98</v>
+        <v>274.72</v>
       </c>
       <c r="E14" t="n">
-        <v>15.692</v>
+        <v>15.028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>138.56</v>
+        <v>60.48</v>
       </c>
       <c r="D15" t="n">
-        <v>193.54</v>
+        <v>137.78</v>
       </c>
       <c r="E15" t="n">
-        <v>18.096</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.9</v>
+        <v>172.58</v>
       </c>
       <c r="D16" t="n">
-        <v>116.14</v>
+        <v>239.68</v>
       </c>
       <c r="E16" t="n">
-        <v>22.176</v>
+        <v>15.592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>193.54</v>
+        <v>125.32</v>
       </c>
       <c r="D17" t="n">
-        <v>242</v>
+        <v>198.78</v>
       </c>
       <c r="E17" t="n">
-        <v>14.88</v>
+        <v>20.052</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>116.14</v>
+        <v>127.24</v>
       </c>
       <c r="D18" t="n">
-        <v>167.86</v>
+        <v>203.54</v>
       </c>
       <c r="E18" t="n">
-        <v>19.624</v>
+        <v>19.516</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>133.82</v>
+        <v>137.78</v>
       </c>
       <c r="D19" t="n">
-        <v>189.76</v>
+        <v>207.78</v>
       </c>
       <c r="E19" t="n">
-        <v>17.924</v>
+        <v>19.632</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>189.76</v>
+        <v>68.2</v>
       </c>
       <c r="D20" t="n">
-        <v>240.28</v>
+        <v>121.6</v>
       </c>
       <c r="E20" t="n">
-        <v>14.492</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>240.28</v>
+        <v>207.78</v>
       </c>
       <c r="D21" t="n">
-        <v>296.58</v>
+        <v>287.46</v>
       </c>
       <c r="E21" t="n">
-        <v>11.972</v>
+        <v>15.264</v>
       </c>
     </row>
     <row r="22">
@@ -846,283 +846,283 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>296.58</v>
+        <v>203.54</v>
       </c>
       <c r="D22" t="n">
-        <v>382.94</v>
+        <v>266.12</v>
       </c>
       <c r="E22" t="n">
-        <v>7.436</v>
+        <v>15.868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>125.3</v>
+        <v>274.72</v>
       </c>
       <c r="D23" t="n">
-        <v>184.66</v>
+        <v>340.02</v>
       </c>
       <c r="E23" t="n">
-        <v>18.444</v>
+        <v>12.588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>242</v>
+        <v>266.12</v>
       </c>
       <c r="D24" t="n">
-        <v>312.82</v>
+        <v>310.48</v>
       </c>
       <c r="E24" t="n">
-        <v>11.888</v>
+        <v>13.052</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>167.86</v>
+        <v>239.68</v>
       </c>
       <c r="D25" t="n">
-        <v>215.64</v>
+        <v>307.36</v>
       </c>
       <c r="E25" t="n">
-        <v>15.976</v>
+        <v>12.424</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>184.66</v>
+        <v>340.02</v>
       </c>
       <c r="D26" t="n">
-        <v>225.46</v>
+        <v>376.34</v>
       </c>
       <c r="E26" t="n">
-        <v>16.004</v>
+        <v>9.596</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>134.04</v>
+        <v>307.36</v>
       </c>
       <c r="D27" t="n">
-        <v>186.72</v>
+        <v>354.04</v>
       </c>
       <c r="E27" t="n">
-        <v>19.188</v>
+        <v>8.896000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>186.72</v>
+        <v>198.78</v>
       </c>
       <c r="D28" t="n">
-        <v>254.84</v>
+        <v>260.34</v>
       </c>
       <c r="E28" t="n">
-        <v>14.976</v>
+        <v>15.516</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>254.84</v>
+        <v>287.46</v>
       </c>
       <c r="D29" t="n">
-        <v>313.34</v>
+        <v>344.76</v>
       </c>
       <c r="E29" t="n">
-        <v>11.736</v>
+        <v>12.144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>215.64</v>
+        <v>310.48</v>
       </c>
       <c r="D30" t="n">
-        <v>269.06</v>
+        <v>375.38</v>
       </c>
       <c r="E30" t="n">
-        <v>11.764</v>
+        <v>9.692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>269.06</v>
+        <v>344.76</v>
       </c>
       <c r="D31" t="n">
-        <v>323.46</v>
+        <v>398.26</v>
       </c>
       <c r="E31" t="n">
-        <v>9.444000000000001</v>
+        <v>8.904</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>313.34</v>
+        <v>375.38</v>
       </c>
       <c r="D32" t="n">
-        <v>364.08</v>
+        <v>456.18</v>
       </c>
       <c r="E32" t="n">
-        <v>9.272</v>
+        <v>5.192</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>312.82</v>
+        <v>260.34</v>
       </c>
       <c r="D33" t="n">
-        <v>389.38</v>
+        <v>321.16</v>
       </c>
       <c r="E33" t="n">
-        <v>7.832</v>
+        <v>12.524</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>188.98</v>
+        <v>354.04</v>
       </c>
       <c r="D34" t="n">
-        <v>233.28</v>
+        <v>395.54</v>
       </c>
       <c r="E34" t="n">
-        <v>12.392</v>
+        <v>6.376</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>382.94</v>
+        <v>395.54</v>
       </c>
       <c r="D35" t="n">
-        <v>435.68</v>
+        <v>464.28</v>
       </c>
       <c r="E35" t="n">
-        <v>3.292</v>
+        <v>3.592</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>364.08</v>
+        <v>321.16</v>
       </c>
       <c r="D36" t="n">
-        <v>399.04</v>
+        <v>369.52</v>
       </c>
       <c r="E36" t="n">
-        <v>6.416</v>
+        <v>9.308</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>435.68</v>
+        <v>456.18</v>
       </c>
       <c r="D37" t="n">
-        <v>535.5</v>
+        <v>542.9400000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>1.136</v>
       </c>
     </row>
     <row r="38">
@@ -1150,60 +1150,60 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>535.5</v>
+        <v>542.9400000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>585.5</v>
+        <v>632.37</v>
       </c>
       <c r="E38" t="n">
-        <v>26.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>233.28</v>
+        <v>121.6</v>
       </c>
       <c r="D39" t="n">
-        <v>282.46</v>
+        <v>169.3</v>
       </c>
       <c r="E39" t="n">
-        <v>9.584</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>399.04</v>
+        <v>169.3</v>
       </c>
       <c r="D40" t="n">
-        <v>444.14</v>
+        <v>222.82</v>
       </c>
       <c r="E40" t="n">
-        <v>3.536</v>
+        <v>13.788</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1211,70 +1211,70 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>225.46</v>
+        <v>222.82</v>
       </c>
       <c r="D41" t="n">
-        <v>306.58</v>
+        <v>289.14</v>
       </c>
       <c r="E41" t="n">
-        <v>11.972</v>
+        <v>9.756</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>306.58</v>
+        <v>632.37</v>
       </c>
       <c r="D42" t="n">
-        <v>389.48</v>
+        <v>696.27</v>
       </c>
       <c r="E42" t="n">
-        <v>7.772</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>389.38</v>
+        <v>376.34</v>
       </c>
       <c r="D43" t="n">
-        <v>453.64</v>
+        <v>459.16</v>
       </c>
       <c r="E43" t="n">
-        <v>4.036</v>
+        <v>5.384</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>389.48</v>
+        <v>459.16</v>
       </c>
       <c r="D44" t="n">
-        <v>442.88</v>
+        <v>503.34</v>
       </c>
       <c r="E44" t="n">
-        <v>4.052</v>
+        <v>3.096</v>
       </c>
     </row>
     <row r="45">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>442.88</v>
+        <v>464.28</v>
       </c>
       <c r="D45" t="n">
-        <v>507.68</v>
+        <v>558.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>507.68</v>
+        <v>558.5</v>
       </c>
       <c r="D46" t="n">
-        <v>578.34</v>
+        <v>646.34</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="47">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>282.46</v>
+        <v>398.26</v>
       </c>
       <c r="D47" t="n">
-        <v>327.7</v>
+        <v>463.16</v>
       </c>
       <c r="E47" t="n">
-        <v>6.68</v>
+        <v>4.524</v>
       </c>
     </row>
     <row r="48">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>444.14</v>
+        <v>503.34</v>
       </c>
       <c r="D48" t="n">
-        <v>547.84</v>
+        <v>574.05</v>
       </c>
       <c r="E48" t="n">
-        <v>0.236</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>547.84</v>
+        <v>574.05</v>
       </c>
       <c r="D49" t="n">
-        <v>624.37</v>
+        <v>624.85</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="50">
@@ -1378,36 +1378,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>453.64</v>
+        <v>289.14</v>
       </c>
       <c r="D50" t="n">
-        <v>510.64</v>
+        <v>335.28</v>
       </c>
       <c r="E50" t="n">
-        <v>0.956</v>
+        <v>6.272</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>510.64</v>
+        <v>646.34</v>
       </c>
       <c r="D51" t="n">
-        <v>605.33</v>
+        <v>709.74</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>21.656</v>
       </c>
     </row>
     <row r="52">
@@ -1416,169 +1416,169 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>605.33</v>
+        <v>335.28</v>
       </c>
       <c r="D52" t="n">
-        <v>669.23</v>
+        <v>385.38</v>
       </c>
       <c r="E52" t="n">
-        <v>26.76</v>
+        <v>2.892</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>669.23</v>
+        <v>369.52</v>
       </c>
       <c r="D53" t="n">
-        <v>736.33</v>
+        <v>438.38</v>
       </c>
       <c r="E53" t="n">
-        <v>23.64</v>
+        <v>5.512</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>323.46</v>
+        <v>385.38</v>
       </c>
       <c r="D54" t="n">
-        <v>392.86</v>
+        <v>439.66</v>
       </c>
       <c r="E54" t="n">
-        <v>6.084</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>585.5</v>
+        <v>439.66</v>
       </c>
       <c r="D55" t="n">
-        <v>652.1</v>
+        <v>521.1900000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>23.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>652.1</v>
+        <v>521.1900000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>690.54</v>
+        <v>561.49</v>
       </c>
       <c r="E56" t="n">
-        <v>20.916</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>578.34</v>
+        <v>463.16</v>
       </c>
       <c r="D57" t="n">
-        <v>651.24</v>
+        <v>512.5599999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>26.36</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>624.37</v>
+        <v>512.5599999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>706.0700000000001</v>
+        <v>587.11</v>
       </c>
       <c r="E58" t="n">
-        <v>26.96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>690.54</v>
+        <v>624.85</v>
       </c>
       <c r="D59" t="n">
-        <v>744.3200000000001</v>
+        <v>702.6900000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>18.628</v>
+        <v>23.916</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>327.7</v>
+        <v>438.38</v>
       </c>
       <c r="D60" t="n">
-        <v>381.06</v>
+        <v>497.38</v>
       </c>
       <c r="E60" t="n">
-        <v>3.464</v>
+        <v>3.192</v>
       </c>
     </row>
     <row r="61">
@@ -1587,74 +1587,74 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>392.86</v>
+        <v>497.38</v>
       </c>
       <c r="D61" t="n">
-        <v>452.32</v>
+        <v>544.78</v>
       </c>
       <c r="E61" t="n">
-        <v>3.268</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>706.0700000000001</v>
+        <v>544.78</v>
       </c>
       <c r="D62" t="n">
-        <v>753.47</v>
+        <v>631.34</v>
       </c>
       <c r="E62" t="n">
-        <v>23.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>651.24</v>
+        <v>587.11</v>
       </c>
       <c r="D63" t="n">
-        <v>704.54</v>
+        <v>648.15</v>
       </c>
       <c r="E63" t="n">
-        <v>22.16</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>452.32</v>
+        <v>561.49</v>
       </c>
       <c r="D64" t="n">
-        <v>547.1799999999999</v>
+        <v>643.29</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="65">
@@ -1663,36 +1663,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>547.1799999999999</v>
+        <v>631.34</v>
       </c>
       <c r="D65" t="n">
-        <v>604.26</v>
+        <v>678.5599999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>26.472</v>
+        <v>27.448</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>381.06</v>
+        <v>696.27</v>
       </c>
       <c r="D66" t="n">
-        <v>451.06</v>
+        <v>736.13</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08400000000000001</v>
+        <v>23.904</v>
       </c>
     </row>
     <row r="67">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>451.06</v>
+        <v>648.15</v>
       </c>
       <c r="D67" t="n">
-        <v>522.79</v>
+        <v>723.8099999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>23.56</v>
       </c>
     </row>
   </sheetData>
